--- a/medicine/Enfance/Jean-Pierre_Hubert/Jean-Pierre_Hubert.xlsx
+++ b/medicine/Enfance/Jean-Pierre_Hubert/Jean-Pierre_Hubert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Hubert est un écrivain de science-fiction français né à Strasbourg le 25 mai 1941 et mort le 1er mai 2006 (à 64 ans) à Wissembourg où il a vécu et enseigné, double lauréat du Grand Prix de l'Imaginaire et quadruple lauréat du Prix Rosny aîné. Il a également écrit des romans policiers ou de gore, certains en collaboration avec Christian Vilà et sous le pseudonyme de Jean-Christian Viluber qui est un composé de leurs deux patronymes.
 </t>
@@ -513,12 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Romans
-Planète à trois temps (roman), OPTA, coll. Nébula, 1975
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Planète à trois temps (roman), OPTA, coll. Nébula, 1975
 Mort à l'étouffée (roman), Kesselring, coll. Ici et maintenant, 1978
 Couple de scorpions (roman), Kesselring, coll. Ici et maintenant, 1980
 Scènes de guerre civile (roman), Galaxie-bis no 82, 1982
-Le champ du rêveur (roman), Denoël, 1983 (Prix Rosny aîné et Grand Prix de l'Imaginaire 1984, catégorie roman et Grand prix de la SF française 1987[1])
+Le champ du rêveur (roman), Denoël, 1983 (Prix Rosny aîné et Grand Prix de l'Imaginaire 1984, catégorie roman et Grand prix de la SF française 1987)
 Séméla (roman), Plasma, 1983
 Les faiseurs d'orages (roman), Denoël, 1984
 Ombromanies (roman), Denoël, 1985 (Prix Rosny aîné 1986, catégorie roman)
@@ -531,16 +548,50 @@
 Sa majesté des clones (roman), Mango Jeunesse, 2002
 Les sonneurs noirs (roman), Mango Jeunesse, 2004
 Sur les pistes de Scar (roman), Mango Jeunesse, 2005
-Le retour de l'ours spatial(roman), Degliame, 2005
-Nouvelles
-Par ordre chronologique de publication.
+Le retour de l'ours spatial(roman), Degliame, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Hubert</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Hubert</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Par ordre chronologique de publication.
 Où le voyageur imprudent tente d'effacer… (1980)
 Navigation en tour close (1981)
 Le Suif et la Corde dans Territoires de l'inquiétude - 3, (1991)
 Abus dangereux dans Territoires de l'inquiétude - 9, (1996)
-Forêts Virtuelles dans Les Visages de l'Humain anthologie dirigée par Denis Guiot, chez Mango, Collection Autres Mondes  (2001)[2]
+Forêts Virtuelles dans Les Visages de l'Humain anthologie dirigée par Denis Guiot, chez Mango, Collection Autres Mondes  (2001)
 Connais-tu cette petite mort ? dans Le Temps, anthologie dirigée par Sybille Marchetto et Olivier Raoux, chez Oxalis éditions (2001)
-Le Temps d'aimer est bien court dans Demain la Terre, anthologie dirigée par Denis Guiot, chez Mango, Collection Autres Mondes  (2003)[3]
+Le Temps d'aimer est bien court dans Demain la Terre, anthologie dirigée par Denis Guiot, chez Mango, Collection Autres Mondes  (2003)
 Stag 5, in Premiers Contacts, Collection Autres Mondes, Mango 2005</t>
         </is>
       </c>
